--- a/testData.xlsx
+++ b/testData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magda.maldonado.FD\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magda.maldonado.FD\Desktop\StackexchangeProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1261A0-250B-4CCE-822A-27A5C29B80CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC896C3-7F2C-4490-9EBB-4F5A4648273D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,9 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>stackoverflow</t>
+  </si>
+  <si>
+    <t>Magda Maldonado</t>
   </si>
 </sst>
 </file>
@@ -385,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,17 +402,23 @@
     <col min="4" max="4" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>10681323</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>10681323</v>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>11081304</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" tooltip="link to user" display="https://stackoverflow.com/u/10681323" xr:uid="{8105DC84-D363-447E-A705-2ED40022D0F3}"/>
+    <hyperlink ref="A1" r:id="rId1" tooltip="link to user" display="https://stackoverflow.com/u/10681323" xr:uid="{8105DC84-D363-447E-A705-2ED40022D0F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
